--- a/block_data.xlsx
+++ b/block_data.xlsx
@@ -397,154 +397,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Hash</v>
+        <v>Network</v>
       </c>
       <c r="B1" t="str">
-        <v>Types</v>
+        <v>Address</v>
       </c>
       <c r="C1" t="str">
-        <v>Address</v>
+        <v>Category</v>
       </c>
       <c r="D1" t="str">
-        <v>URL</v>
+        <v>Entity</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Evidence(TxHash)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Evidence(Link)</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Evidence(Text)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B2" t="str">
+        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E2" t="str">
         <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
       </c>
-      <c r="B2" t="str">
+      <c r="F2" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+      </c>
+      <c r="G2" t="str">
         <v xml:space="preserve">coin_transfer , </v>
-      </c>
-      <c r="C2" t="str">
-        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
-      </c>
-      <c r="D2" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E3" t="str">
         <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
-      <c r="B3" t="str">
+      <c r="F3" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+      </c>
+      <c r="G3" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C3" t="str">
-        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E4" t="str">
         <v>0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
-      <c r="B4" t="str">
+      <c r="F4" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
+      </c>
+      <c r="G4" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C4" t="str">
-        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E5" t="str">
         <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
-      <c r="B5" t="str">
+      <c r="F5" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+      </c>
+      <c r="G5" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C5" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
-      </c>
-      <c r="D5" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E6" t="str">
         <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
       </c>
-      <c r="B6" t="str">
+      <c r="F6" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+      </c>
+      <c r="G6" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C6" t="str">
-        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
-      </c>
-      <c r="D6" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E7" t="str">
         <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
-      <c r="B7" t="str">
+      <c r="F7" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+      </c>
+      <c r="G7" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C7" t="str">
-        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
-      </c>
-      <c r="D7" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B8" t="str">
+        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E8" t="str">
         <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
       </c>
-      <c r="B8" t="str">
+      <c r="F8" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+      </c>
+      <c r="G8" t="str">
         <v xml:space="preserve">contract_call , </v>
-      </c>
-      <c r="C8" t="str">
-        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
-      </c>
-      <c r="D8" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E9" t="str">
         <v>0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
       </c>
-      <c r="B9" t="str">
+      <c r="F9" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
+      </c>
+      <c r="G9" t="str">
         <v xml:space="preserve">contract_call , </v>
-      </c>
-      <c r="C9" t="str">
-        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
-      </c>
-      <c r="D9" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E10" t="str">
         <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
-      <c r="B10" t="str">
+      <c r="F10" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+      </c>
+      <c r="G10" t="str">
         <v>contract_call , token_transfer</v>
-      </c>
-      <c r="C10" t="str">
-        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
-      </c>
-      <c r="D10" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/block_data.xlsx
+++ b/block_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Metis</v>
       </c>
       <c r="B2" t="str">
-        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
+        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
       </c>
       <c r="C2" t="str">
         <v>Infra,L2,Wallet</v>
@@ -439,13 +439,13 @@
         <v>Metis</v>
       </c>
       <c r="E2" t="str">
-        <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="F2" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="G2" t="str">
-        <v xml:space="preserve">coin_transfer , </v>
+        <v>contract_call , token_transfer</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>Metis</v>
       </c>
       <c r="B3" t="str">
-        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
+        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
       </c>
       <c r="C3" t="str">
         <v>Infra,L2,Wallet</v>
@@ -462,10 +462,10 @@
         <v>Metis</v>
       </c>
       <c r="E3" t="str">
-        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="F3" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="G3" t="str">
         <v>contract_call , token_transfer</v>
@@ -476,7 +476,7 @@
         <v>Metis</v>
       </c>
       <c r="B4" t="str">
-        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
+        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
       </c>
       <c r="C4" t="str">
         <v>Infra,L2,Wallet</v>
@@ -485,10 +485,10 @@
         <v>Metis</v>
       </c>
       <c r="E4" t="str">
-        <v>0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
+        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
       </c>
       <c r="F4" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
       </c>
       <c r="G4" t="str">
         <v>contract_call , token_transfer</v>
@@ -499,7 +499,7 @@
         <v>Metis</v>
       </c>
       <c r="B5" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
       </c>
       <c r="C5" t="str">
         <v>Infra,L2,Wallet</v>
@@ -508,10 +508,10 @@
         <v>Metis</v>
       </c>
       <c r="E5" t="str">
-        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="F5" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="G5" t="str">
         <v>contract_call , token_transfer</v>
@@ -545,7 +545,7 @@
         <v>Metis</v>
       </c>
       <c r="B7" t="str">
-        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
       </c>
       <c r="C7" t="str">
         <v>Infra,L2,Wallet</v>
@@ -554,10 +554,10 @@
         <v>Metis</v>
       </c>
       <c r="E7" t="str">
-        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
       <c r="F7" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
       <c r="G7" t="str">
         <v>contract_call , token_transfer</v>
@@ -568,7 +568,7 @@
         <v>Metis</v>
       </c>
       <c r="B8" t="str">
-        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
       </c>
       <c r="C8" t="str">
         <v>Infra,L2,Wallet</v>
@@ -577,10 +577,10 @@
         <v>Metis</v>
       </c>
       <c r="E8" t="str">
-        <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+        <v>0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
       </c>
       <c r="F8" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
       </c>
       <c r="G8" t="str">
         <v xml:space="preserve">contract_call , </v>
@@ -591,7 +591,7 @@
         <v>Metis</v>
       </c>
       <c r="B9" t="str">
-        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
+        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
       </c>
       <c r="C9" t="str">
         <v>Infra,L2,Wallet</v>
@@ -600,13 +600,13 @@
         <v>Metis</v>
       </c>
       <c r="E9" t="str">
-        <v>0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
+        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
       </c>
       <c r="F9" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
       </c>
       <c r="G9" t="str">
-        <v xml:space="preserve">contract_call , </v>
+        <v>contract_call , token_transfer</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>Metis</v>
       </c>
       <c r="B10" t="str">
-        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
       </c>
       <c r="C10" t="str">
         <v>Infra,L2,Wallet</v>
@@ -623,18 +623,133 @@
         <v>Metis</v>
       </c>
       <c r="E10" t="str">
-        <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
       </c>
       <c r="F10" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
       </c>
       <c r="G10" t="str">
+        <v xml:space="preserve">contract_call , </v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+      </c>
+      <c r="G11" t="str">
+        <v>contract_call , token_transfer</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B12" t="str">
+        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+      </c>
+      <c r="G12" t="str">
+        <v xml:space="preserve">contract_call , </v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B13" t="str">
+        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
+      </c>
+      <c r="G13" t="str">
+        <v xml:space="preserve">contract_call , </v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B14" t="str">
+        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E14" t="str">
+        <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+      </c>
+      <c r="G14" t="str">
+        <v xml:space="preserve">coin_transfer , </v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B15" t="str">
+        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+      </c>
+      <c r="G15" t="str">
         <v>contract_call , token_transfer</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/block_data.xlsx
+++ b/block_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Metis</v>
       </c>
       <c r="B2" t="str">
-        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
+        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
       </c>
       <c r="C2" t="str">
         <v>Infra,L2,Wallet</v>
@@ -439,10 +439,10 @@
         <v>Metis</v>
       </c>
       <c r="E2" t="str">
-        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
       </c>
       <c r="F2" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
       </c>
       <c r="G2" t="str">
         <v>contract_call , token_transfer</v>
@@ -453,7 +453,7 @@
         <v>Metis</v>
       </c>
       <c r="B3" t="str">
-        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
       </c>
       <c r="C3" t="str">
         <v>Infra,L2,Wallet</v>
@@ -462,10 +462,10 @@
         <v>Metis</v>
       </c>
       <c r="E3" t="str">
-        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
       <c r="F3" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
       <c r="G3" t="str">
         <v>contract_call , token_transfer</v>
@@ -499,7 +499,7 @@
         <v>Metis</v>
       </c>
       <c r="B5" t="str">
-        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
       </c>
       <c r="C5" t="str">
         <v>Infra,L2,Wallet</v>
@@ -508,10 +508,10 @@
         <v>Metis</v>
       </c>
       <c r="E5" t="str">
-        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="F5" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="G5" t="str">
         <v>contract_call , token_transfer</v>
@@ -545,7 +545,7 @@
         <v>Metis</v>
       </c>
       <c r="B7" t="str">
-        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
       </c>
       <c r="C7" t="str">
         <v>Infra,L2,Wallet</v>
@@ -554,10 +554,10 @@
         <v>Metis</v>
       </c>
       <c r="E7" t="str">
-        <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="F7" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="G7" t="str">
         <v>contract_call , token_transfer</v>
@@ -568,7 +568,7 @@
         <v>Metis</v>
       </c>
       <c r="B8" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+        <v>0x339d413CCEfD986b1B3647A9cfa9CBbE70A30749</v>
       </c>
       <c r="C8" t="str">
         <v>Infra,L2,Wallet</v>
@@ -577,179 +577,18 @@
         <v>Metis</v>
       </c>
       <c r="E8" t="str">
-        <v>0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
+        <v>0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="F8" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="G8" t="str">
         <v xml:space="preserve">contract_call , </v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B9" t="str">
-        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E9" t="str">
-        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
-      </c>
-      <c r="F9" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
-      </c>
-      <c r="G9" t="str">
-        <v>contract_call , token_transfer</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
-      </c>
-      <c r="F10" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x782e3fca6a4efede6f29fbe3e1fafc1bb968976854d81e8f9f4217d012a52d19</v>
-      </c>
-      <c r="G10" t="str">
-        <v xml:space="preserve">contract_call , </v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B11" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E11" t="str">
-        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
-      </c>
-      <c r="F11" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
-      </c>
-      <c r="G11" t="str">
-        <v>contract_call , token_transfer</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B12" t="str">
-        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E12" t="str">
-        <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
-      </c>
-      <c r="F12" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
-      </c>
-      <c r="G12" t="str">
-        <v xml:space="preserve">contract_call , </v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B13" t="str">
-        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E13" t="str">
-        <v>0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
-      </c>
-      <c r="F13" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
-      </c>
-      <c r="G13" t="str">
-        <v xml:space="preserve">contract_call , </v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B14" t="str">
-        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E14" t="str">
-        <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
-      </c>
-      <c r="F14" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
-      </c>
-      <c r="G14" t="str">
-        <v xml:space="preserve">coin_transfer , </v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B15" t="str">
-        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E15" t="str">
-        <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
-      </c>
-      <c r="F15" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
-      </c>
-      <c r="G15" t="str">
-        <v>contract_call , token_transfer</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/block_data.xlsx
+++ b/block_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Metis</v>
       </c>
       <c r="B2" t="str">
-        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
       </c>
       <c r="C2" t="str">
         <v>Infra,L2,Wallet</v>
@@ -439,10 +439,10 @@
         <v>Metis</v>
       </c>
       <c r="E2" t="str">
-        <v>0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
+        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="F2" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="G2" t="str">
         <v>contract_call , token_transfer</v>
@@ -453,7 +453,7 @@
         <v>Metis</v>
       </c>
       <c r="B3" t="str">
-        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
+        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
       </c>
       <c r="C3" t="str">
         <v>Infra,L2,Wallet</v>
@@ -462,13 +462,13 @@
         <v>Metis</v>
       </c>
       <c r="E3" t="str">
-        <v>0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
+        <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
       </c>
       <c r="F3" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
       </c>
       <c r="G3" t="str">
-        <v>contract_call , token_transfer</v>
+        <v xml:space="preserve">contract_call , </v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         <v>Metis</v>
       </c>
       <c r="B4" t="str">
-        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
+        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
       </c>
       <c r="C4" t="str">
         <v>Infra,L2,Wallet</v>
@@ -485,10 +485,10 @@
         <v>Metis</v>
       </c>
       <c r="E4" t="str">
-        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
+        <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
       <c r="F4" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
       </c>
       <c r="G4" t="str">
         <v>contract_call , token_transfer</v>
@@ -499,7 +499,7 @@
         <v>Metis</v>
       </c>
       <c r="B5" t="str">
-        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
+        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
       </c>
       <c r="C5" t="str">
         <v>Infra,L2,Wallet</v>
@@ -508,10 +508,10 @@
         <v>Metis</v>
       </c>
       <c r="E5" t="str">
-        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
       </c>
       <c r="F5" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
       </c>
       <c r="G5" t="str">
         <v>contract_call , token_transfer</v>
@@ -522,7 +522,7 @@
         <v>Metis</v>
       </c>
       <c r="B6" t="str">
-        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
+        <v>0x339d413CCEfD986b1B3647A9cfa9CBbE70A30749</v>
       </c>
       <c r="C6" t="str">
         <v>Infra,L2,Wallet</v>
@@ -531,13 +531,13 @@
         <v>Metis</v>
       </c>
       <c r="E6" t="str">
-        <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+        <v>0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="F6" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="G6" t="str">
-        <v>contract_call , token_transfer</v>
+        <v xml:space="preserve">contract_call , </v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         <v>Metis</v>
       </c>
       <c r="B7" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
       </c>
       <c r="C7" t="str">
         <v>Infra,L2,Wallet</v>
@@ -554,13 +554,13 @@
         <v>Metis</v>
       </c>
       <c r="E7" t="str">
-        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
       </c>
       <c r="F7" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
       </c>
       <c r="G7" t="str">
-        <v>contract_call , token_transfer</v>
+        <v xml:space="preserve">coin_transfer , </v>
       </c>
     </row>
     <row r="8">
@@ -568,7 +568,7 @@
         <v>Metis</v>
       </c>
       <c r="B8" t="str">
-        <v>0x339d413CCEfD986b1B3647A9cfa9CBbE70A30749</v>
+        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
       </c>
       <c r="C8" t="str">
         <v>Infra,L2,Wallet</v>
@@ -577,18 +577,87 @@
         <v>Metis</v>
       </c>
       <c r="E8" t="str">
-        <v>0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
+        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="F8" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="G8" t="str">
-        <v xml:space="preserve">contract_call , </v>
+        <v>contract_call , token_transfer</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B9" t="str">
+        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E9" t="str">
+        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+      </c>
+      <c r="G9" t="str">
+        <v>contract_call , token_transfer</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B10" t="str">
+        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
+      </c>
+      <c r="G10" t="str">
+        <v>contract_call , token_transfer</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Infra,L2,Wallet</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Metis</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
+      </c>
+      <c r="G11" t="str">
+        <v>contract_call , token_transfer</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/block_data.xlsx
+++ b/block_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>Metis</v>
       </c>
       <c r="B2" t="str">
-        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
+        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
       </c>
       <c r="C2" t="str">
         <v>Infra,L2,Wallet</v>
@@ -439,10 +439,10 @@
         <v>Metis</v>
       </c>
       <c r="E2" t="str">
-        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="F2" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
       </c>
       <c r="G2" t="str">
         <v>contract_call , token_transfer</v>
@@ -453,7 +453,7 @@
         <v>Metis</v>
       </c>
       <c r="B3" t="str">
-        <v>0x07f327929A3A3131EB4BE83f784DBD3E5C2698f8</v>
+        <v>0x6C0d1eD9dbcf23eF4AF36d1Ea621Aa643CC31dC8</v>
       </c>
       <c r="C3" t="str">
         <v>Infra,L2,Wallet</v>
@@ -462,13 +462,13 @@
         <v>Metis</v>
       </c>
       <c r="E3" t="str">
-        <v>0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+        <v>0xb9c847351f2d50d80df7cfba5dba6dd1a4cd4d541e89e604ecb2c3b4efada41d</v>
       </c>
       <c r="F3" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3d48ebae2e06f3b0c4e70adc5f5871a3707d09e1fbef14c7075bb0de7f11e715</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xb9c847351f2d50d80df7cfba5dba6dd1a4cd4d541e89e604ecb2c3b4efada41d</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve">contract_call , </v>
+        <v>contract_call , token_transfer</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         <v>Metis</v>
       </c>
       <c r="B4" t="str">
-        <v>0xb06145Bc400005e39509A43ca62F521476aA7D4f</v>
+        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
       </c>
       <c r="C4" t="str">
         <v>Infra,L2,Wallet</v>
@@ -485,10 +485,10 @@
         <v>Metis</v>
       </c>
       <c r="E4" t="str">
-        <v>0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="F4" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0xafbcfc20915e33f039d21cc645b9f1b6e1b5b2c7dfb2de9cf2e768996275a65f</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
       </c>
       <c r="G4" t="str">
         <v>contract_call , token_transfer</v>
@@ -499,7 +499,7 @@
         <v>Metis</v>
       </c>
       <c r="B5" t="str">
-        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
+        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
       </c>
       <c r="C5" t="str">
         <v>Infra,L2,Wallet</v>
@@ -508,13 +508,13 @@
         <v>Metis</v>
       </c>
       <c r="E5" t="str">
-        <v>0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
+        <v>0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
       </c>
       <c r="F5" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x3c90a08cf9e6a6b5575629e464975acf29aecfef681a1b8bec760508c633ba3e</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xccb78fefc7b15523b64e614dcc8148b3b192cba07dd13e57015cdd0a2f5b68d4</v>
       </c>
       <c r="G5" t="str">
-        <v>contract_call , token_transfer</v>
+        <v xml:space="preserve">contract_call , </v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>Metis</v>
       </c>
       <c r="B6" t="str">
-        <v>0x339d413CCEfD986b1B3647A9cfa9CBbE70A30749</v>
+        <v>0x043951150857e82D8f59bcABf1CF4EF99Fb9ae03</v>
       </c>
       <c r="C6" t="str">
         <v>Infra,L2,Wallet</v>
@@ -531,10 +531,10 @@
         <v>Metis</v>
       </c>
       <c r="E6" t="str">
-        <v>0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
+        <v>0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
       </c>
       <c r="F6" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xb730185669532f487112ceb2da069ee084800fa39b3562291490f4cffaec1470</v>
       </c>
       <c r="G6" t="str">
         <v xml:space="preserve">contract_call , </v>
@@ -545,7 +545,7 @@
         <v>Metis</v>
       </c>
       <c r="B7" t="str">
-        <v>0xF263184c6aF13137AB61f25cb749446A5094efAF</v>
+        <v>0x0F7c548C3c100e1AD6A1F092D95884Cc4dCEf4bB</v>
       </c>
       <c r="C7" t="str">
         <v>Infra,L2,Wallet</v>
@@ -554,13 +554,13 @@
         <v>Metis</v>
       </c>
       <c r="E7" t="str">
-        <v>0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+        <v>0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
       <c r="F7" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x75ea9cad47e720131ed1265563e3552501349c01ba9e7e123da650de28bb8b15</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xe8b6d44c90fce58ed7a93eafadf866faa9f632c7b1ef1f97969ac107b7546775</v>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve">coin_transfer , </v>
+        <v>contract_call , token_transfer</v>
       </c>
     </row>
     <row r="8">
@@ -568,7 +568,7 @@
         <v>Metis</v>
       </c>
       <c r="B8" t="str">
-        <v>0x230A1AC45690B9Ae1176389434610B9526d2f21b</v>
+        <v>0xBB6a455B9807fE8BfE3fFd65332d721a3b8dA3be</v>
       </c>
       <c r="C8" t="str">
         <v>Infra,L2,Wallet</v>
@@ -577,10 +577,10 @@
         <v>Metis</v>
       </c>
       <c r="E8" t="str">
-        <v>0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="F8" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x5c24c8df61e97f9292862bfe8835f3aa8f999dc0985eb6be5c4306e79114b892</v>
+        <v>https://andromeda-explorer.metis.io/tx/0xfe3f708f5c86e656a697d9b5230d2607c17501c29c196bd69acb2ada323b12da</v>
       </c>
       <c r="G8" t="str">
         <v>contract_call , token_transfer</v>
@@ -591,7 +591,7 @@
         <v>Metis</v>
       </c>
       <c r="B9" t="str">
-        <v>0x1796A56B5446A4D7D32914aa645Ba1d3730aE81D</v>
+        <v>0x339d413CCEfD986b1B3647A9cfa9CBbE70A30749</v>
       </c>
       <c r="C9" t="str">
         <v>Infra,L2,Wallet</v>
@@ -600,64 +600,18 @@
         <v>Metis</v>
       </c>
       <c r="E9" t="str">
-        <v>0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="F9" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x87300970d3d36dc8527b6bd1acdccce1f0e2f52ebba99efbcfa6d0331835b322</v>
+        <v>https://andromeda-explorer.metis.io/tx/0x354ab6a5635cf85c7783cf2cdf3abf16c8ee704f939b35babaafb0f27d57502f</v>
       </c>
       <c r="G9" t="str">
-        <v>contract_call , token_transfer</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0x7269920CA03490b480472f8fb5F68Eb55c682513</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E10" t="str">
-        <v>0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
-      </c>
-      <c r="F10" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x895391c78acbb24dc9d911ff0727cb3b324492bf1024f9d2459ef93e17bb7396</v>
-      </c>
-      <c r="G10" t="str">
-        <v>contract_call , token_transfer</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="B11" t="str">
-        <v>0x64B0DE310bE5E3C1f17a07C9a6dc55CD7170d79c</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Infra,L2,Wallet</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Metis</v>
-      </c>
-      <c r="E11" t="str">
-        <v>0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
-      </c>
-      <c r="F11" t="str">
-        <v>https://andromeda-explorer.metis.io/tx/0x748e7816117f773c771346cee0abb15cbb2cb40d561ead960202a00900b2a077</v>
-      </c>
-      <c r="G11" t="str">
-        <v>contract_call , token_transfer</v>
+        <v xml:space="preserve">contract_call , </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G9"/>
   </ignoredErrors>
 </worksheet>
 </file>